--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/96.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/96.xlsx
@@ -479,13 +479,13 @@
         <v>-2.936103667505617</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.399310507142</v>
+        <v>-10.32726356460398</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.192691684822411</v>
+        <v>-3.189274593780721</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.494966413944856</v>
+        <v>-7.292074996806627</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-2.723519817554869</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.95269596365608</v>
+        <v>-10.8888186180913</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.286327834746436</v>
+        <v>-3.288265495567011</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.371047767547918</v>
+        <v>-7.178446900443286</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-2.534128899642329</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.10681855270888</v>
+        <v>-11.04588697528348</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.1828986422968</v>
+        <v>-3.188842547786944</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.987849155673438</v>
+        <v>-6.801768255383986</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-2.391739265946786</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.5657430442199</v>
+        <v>-11.50765249651116</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.326324819927909</v>
+        <v>-3.332425833052153</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.689318466276401</v>
+        <v>-6.505319242138783</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.284689914245767</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.97863499893942</v>
+        <v>-11.93351892334683</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.399825008081359</v>
+        <v>-3.413349356916862</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.406223601929758</v>
+        <v>-6.223952561767248</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.20391315171213</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.51943875242259</v>
+        <v>-12.47936321342407</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.27809277625899</v>
+        <v>-3.290307894810321</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.086522658837649</v>
+        <v>-5.909121955332261</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.127655075094409</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.09383735499764</v>
+        <v>-13.05738838388628</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.260824028810754</v>
+        <v>-3.284193789383234</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.919386320760174</v>
+        <v>-5.747183261482951</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.037218715224776</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.50993692391338</v>
+        <v>-13.47813572031083</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.379008246563015</v>
+        <v>-3.401055684548481</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.768693915051907</v>
+        <v>-5.603901099183101</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.913652257425107</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.19971799143256</v>
+        <v>-14.15583259230709</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.252248570449423</v>
+        <v>-3.275186285028127</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.728762391384643</v>
+        <v>-5.568604250721807</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.750453411020564</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.64200216603175</v>
+        <v>-14.60118036577125</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.333643417216434</v>
+        <v>-3.35667277791503</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.742522401671296</v>
+        <v>-5.576315617095585</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.553251995195675</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.20645061844709</v>
+        <v>-15.15862443616626</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.370184034447691</v>
+        <v>-3.393802548774165</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.474483685592639</v>
+        <v>-5.31808303584538</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.333822711265904</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.2864969580214</v>
+        <v>-15.24083100570946</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.473927442165529</v>
+        <v>-3.487805283177758</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.025993759446471</v>
+        <v>-4.868742110014499</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-1.107918650522298</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.9813054698318</v>
+        <v>-15.93024548874907</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.161676019390362</v>
+        <v>-3.184810118511692</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.664017770478428</v>
+        <v>-4.505155767796924</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.8845236239388311</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.57955824818447</v>
+        <v>-16.53075014319052</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.101385964804213</v>
+        <v>-3.119610450359896</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.610863020941021</v>
+        <v>-4.456465493528545</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.6675740881506801</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.34904525540408</v>
+        <v>-17.29531444454164</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.898389809243251</v>
+        <v>-2.927022675558106</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.370920386760707</v>
+        <v>-4.213184322123591</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.4591435179969898</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.85738009783978</v>
+        <v>-17.80683071656788</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.770098333697177</v>
+        <v>-2.794751139948147</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.14020782608381</v>
+        <v>-3.969484197027702</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.25772016161035</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.2824478942021</v>
+        <v>-18.22471083867009</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.852880964565411</v>
+        <v>-2.878960831826129</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.053746258117052</v>
+        <v>-3.881582475748353</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.06415279470993211</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.8625416485133</v>
+        <v>-18.79546978105514</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.629814308748082</v>
+        <v>-2.658709021119772</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.693668653061059</v>
+        <v>-3.517223687663117</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1190556742597817</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.18376129873505</v>
+        <v>-19.11613955455753</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.387501967753416</v>
+        <v>-2.415715880377336</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.32906111122183</v>
+        <v>-3.141212750048744</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.2889134879776399</v>
       </c>
       <c r="E21" t="n">
-        <v>-19.88114899420527</v>
+        <v>-19.79772484049779</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.14700945685375</v>
+        <v>-2.174031969919072</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.299734352856364</v>
+        <v>-3.101490703226947</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4384822202150524</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.4507427216374</v>
+        <v>-20.36079860111475</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.942952824762608</v>
+        <v>-1.97869481152052</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.274858977457084</v>
+        <v>-3.077269942969754</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5598698441228732</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.6526522160625</v>
+        <v>-20.55532403673711</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.810812212181066</v>
+        <v>-1.850089120706244</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.111768160957702</v>
+        <v>-2.903142315174797</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6434772660943895</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.19109935503417</v>
+        <v>-21.08371628712634</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.618276806590643</v>
+        <v>-1.649606687290893</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.255691846096797</v>
+        <v>-3.052263644542057</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6792973553729503</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.36009480011517</v>
+        <v>-21.24837817996672</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.4289359228936</v>
+        <v>-1.460724034193311</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.261334628621581</v>
+        <v>-3.064203824733712</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6588029703715138</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.46861689837024</v>
+        <v>-21.36343333733981</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.444843070846298</v>
+        <v>-1.470909845804174</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.463767815160349</v>
+        <v>-3.272528547551257</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.5770697083962064</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.5486763302474</v>
+        <v>-21.44461870726136</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.264653706835622</v>
+        <v>-1.308905690440656</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.690487223470519</v>
+        <v>-3.515089642299916</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.4332238100668525</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.46679706827524</v>
+        <v>-21.36678496686729</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.221881153451703</v>
+        <v>-1.25546291024073</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.720992289091742</v>
+        <v>-3.549731875619123</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.2319530500436821</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.52950919888711</v>
+        <v>-21.42308186908672</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.066724272474407</v>
+        <v>-1.103448181945448</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.03325680416975</v>
+        <v>-3.861721452337455</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.01478385013431134</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.56933598413164</v>
+        <v>-21.46136376259592</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.160831745300734</v>
+        <v>-1.194020733004509</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.219638827424562</v>
+        <v>-4.045380276601188</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.2916322632221308</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.411311888832</v>
+        <v>-21.30320874426787</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.229330673768645</v>
+        <v>-1.26107950815983</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.262319734688589</v>
+        <v>-4.090745105947769</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.5807340347591499</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.28775982691464</v>
+        <v>-21.18697527963903</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.31932716350267</v>
+        <v>-1.347514891520906</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.56875817500203</v>
+        <v>-4.405981573770849</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.8638022164577034</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.24873167214345</v>
+        <v>-21.14305060360504</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.390339814116192</v>
+        <v>-1.421564956393709</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.476038486276925</v>
+        <v>-4.314793684478227</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.125173938945566</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.85661720203375</v>
+        <v>-20.74986256466232</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.54202723484043</v>
+        <v>-1.566103979766364</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.406073219890741</v>
+        <v>-4.247905109259849</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.350238794523446</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.59320006885823</v>
+        <v>-20.48415427848949</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.568382040460825</v>
+        <v>-1.596753060718845</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.375306308212685</v>
+        <v>-4.21249043007298</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.53004124498433</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.35794447909525</v>
+        <v>-20.2513731339636</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.745193590338335</v>
+        <v>-1.769505996715421</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.261010504404417</v>
+        <v>-4.107241407528344</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.661252540443361</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.07105284692451</v>
+        <v>-19.96588237819692</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.752302710781392</v>
+        <v>-1.775292794571463</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.098024426327768</v>
+        <v>-3.930456042256517</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.742468060400856</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.7513519038324</v>
+        <v>-19.64789652677708</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.822935684612505</v>
+        <v>-1.846056691430993</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.720939919880375</v>
+        <v>-3.568401499471424</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.779078554076795</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.62525993516373</v>
+        <v>-19.5175626519877</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.764386906304306</v>
+        <v>-1.783828976024269</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.385698413315137</v>
+        <v>-3.233042162180611</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.778495626055185</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.24659126007249</v>
+        <v>-19.14745634295494</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.891748828348617</v>
+        <v>-1.925108015989335</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.529897036813908</v>
+        <v>-3.384925967447475</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.749809992433842</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.86475424769355</v>
+        <v>-18.77634192660338</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.744460421379199</v>
+        <v>-1.784483591166355</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.128631047017846</v>
+        <v>-2.974731027113355</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.706653710570218</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.31045232998055</v>
+        <v>-18.22867780643113</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.853571673262144</v>
+        <v>-1.889942090556459</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.036579065737669</v>
+        <v>-2.876473294286201</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.662304235350019</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.96184358221391</v>
+        <v>-17.87951918194514</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.142060566379578</v>
+        <v>-2.168886694902274</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.949253405783356</v>
+        <v>-2.786594635277752</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.630445967217734</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.77734685056831</v>
+        <v>-17.69985351004813</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.258110738768637</v>
+        <v>-2.284059683000939</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.757477353757753</v>
+        <v>-2.607753778459774</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.620750870331909</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.59604464081609</v>
+        <v>-17.52941791165454</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.182018274652525</v>
+        <v>-2.197532653519971</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.710803294126999</v>
+        <v>-2.554900151887725</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.638149373142546</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.16765139953197</v>
+        <v>-17.10856583680726</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.301276061237808</v>
+        <v>-2.321608407551009</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.519773503363375</v>
+        <v>-2.366789944657806</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.6864410219791</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.22698571601067</v>
+        <v>-17.18213148647492</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.2021542364231</v>
+        <v>-2.228783980403171</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.404927822835754</v>
+        <v>-2.248409342362919</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.765188147052358</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.10137816254715</v>
+        <v>-17.05391856474589</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.341508707870433</v>
+        <v>-2.364551160871871</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.183170397302598</v>
+        <v>-2.028445562319079</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.872353942961371</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.6489081763371</v>
+        <v>-16.60088560951365</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.364655899294604</v>
+        <v>-2.390303720561545</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.145412195907059</v>
+        <v>-1.98363060969185</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.005178612096917</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.35926716056959</v>
+        <v>-16.32525335778679</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.54916572324305</v>
+        <v>-2.576332251639631</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.960260849119369</v>
+        <v>-1.798584001326894</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.158288615883488</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.90260763745019</v>
+        <v>-15.87379147889555</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.659507651593117</v>
+        <v>-2.682379904657612</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.86120448581887</v>
+        <v>-1.704960943705711</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.329709841104632</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.73808975994106</v>
+        <v>-15.71186587734908</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.563004287346754</v>
+        <v>-2.590707600159846</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.807512951864951</v>
+        <v>-1.654071162559922</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.518472873585567</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.27671700779863</v>
+        <v>-15.25845324533442</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.452884928144996</v>
+        <v>-2.47164619811719</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.822569100132936</v>
+        <v>-1.673238293920209</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.722988092598315</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.93690628754163</v>
+        <v>-14.92529341492102</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.660620497334664</v>
+        <v>-2.677090614309555</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.020694919036777</v>
+        <v>-1.867305498943114</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.946995497844676</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.5567058130179</v>
+        <v>-14.53980365004924</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.674210307684375</v>
+        <v>-2.698627452484195</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.053648245289402</v>
+        <v>-1.899316179391135</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.191378932255489</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.64784133309916</v>
+        <v>-14.63148904684984</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.518961780587188</v>
+        <v>-2.534973666962618</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.94236367113473</v>
+        <v>-1.784496683469197</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.457525207056157</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.50463772461636</v>
+        <v>-14.48441011672589</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.669628001689771</v>
+        <v>-2.687983410273871</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.123940819246628</v>
+        <v>-1.973209136629837</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.748397807784003</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.4171418647251</v>
+        <v>-14.40609196112669</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.535012943871144</v>
+        <v>-2.551312860909093</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.465649923415679</v>
+        <v>-2.318623362503095</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.060710825168209</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.07772391355336</v>
+        <v>-14.07277502307918</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.530090238002655</v>
+        <v>-2.539830911316899</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.707176726239842</v>
+        <v>-2.548209985135604</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.39244849977653</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.76625802894869</v>
+        <v>-13.75975115443635</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.581307326719487</v>
+        <v>-2.592265584198012</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.873043110941669</v>
+        <v>-2.720884367315129</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.737102829367909</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.78682603671304</v>
+        <v>-13.77420505677362</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.440277040508414</v>
+        <v>-2.456354388398053</v>
       </c>
       <c r="G61" t="n">
-        <v>-3.036029189018317</v>
+        <v>-2.882967076495698</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.083359906485036</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.6074614877814</v>
+        <v>-13.58748263364492</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.420402924794674</v>
+        <v>-2.438156087448054</v>
       </c>
       <c r="G62" t="n">
-        <v>-3.209227263311511</v>
+        <v>-3.057225627319072</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.422162475991392</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.51935028965658</v>
+        <v>-13.49070433103888</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.504311493707296</v>
+        <v>-2.526804069989382</v>
       </c>
       <c r="G63" t="n">
-        <v>-3.199538959208634</v>
+        <v>-3.05099369116641</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.737363766834934</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.30606358406202</v>
+        <v>-13.2760298413431</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.38290656945597</v>
+        <v>-2.399520701762121</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.28401049714345</v>
+        <v>-3.135910367397845</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.01450142011408</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.20589437501997</v>
+        <v>-13.166931681763</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.359065485981187</v>
+        <v>-2.380602324155827</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.548003691644015</v>
+        <v>-3.402024514958769</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.24099623089642</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.13451513992688</v>
+        <v>-13.09650818477735</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.417836833437696</v>
+        <v>-2.439085640949817</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.498881371381859</v>
+        <v>-3.357746346748052</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.404388270005861</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.21398541817616</v>
+        <v>-13.16868605034379</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.544923817122331</v>
+        <v>-2.565753670943517</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.448515282349738</v>
+        <v>-3.304251197336759</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.497154987191629</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.28076925497181</v>
+        <v>-13.22743121319462</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.592422691832112</v>
+        <v>-2.619811789377004</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.552952582118187</v>
+        <v>-3.41014174272064</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.51089181174147</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.09577501581822</v>
+        <v>-13.03672873000203</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.393458965546401</v>
+        <v>-2.421581232050429</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.387334951170352</v>
+        <v>-3.242979220037481</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.44275253365956</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.23357150322738</v>
+        <v>-13.17388369457196</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.658499544274304</v>
+        <v>-2.687184779800526</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.340687076145282</v>
+        <v>-3.191788315926332</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.296269158623759</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.14062924535397</v>
+        <v>-13.0821197439543</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.701494666806532</v>
+        <v>-2.724288366053977</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.182532057817232</v>
+        <v>-3.034733051036986</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.077236613865368</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.26892072090005</v>
+        <v>-13.20550160593472</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.764088966692825</v>
+        <v>-2.79128167969509</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.211623154731547</v>
+        <v>-3.05099369116641</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.798565124226891</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.41005574553385</v>
+        <v>-13.3386896027436</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.762413151929084</v>
+        <v>-2.794397647771421</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.108390346824537</v>
+        <v>-2.944684192091594</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.472155225220741</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.64612305807301</v>
+        <v>-13.57649819156071</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.819521776924693</v>
+        <v>-2.854569871631994</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.169374293461297</v>
+        <v>-3.009019768255836</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.113158079445517</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.8729733894116</v>
+        <v>-13.82183485451182</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.8983112554262</v>
+        <v>-2.931958473729436</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.02793814586213</v>
+        <v>-2.862241961097245</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.735968446845526</v>
       </c>
       <c r="E76" t="n">
-        <v>-14.01807538180645</v>
+        <v>-13.95559891264574</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.051949429273856</v>
+        <v>-3.090676461079682</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.677247721943656</v>
+        <v>-2.5034343094169</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.348870346410844</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.49722748120794</v>
+        <v>-14.44430839312169</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.175763337248059</v>
+        <v>-3.21414996918</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.412194050912912</v>
+        <v>-2.234570778259214</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.96255257841245</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.27676937701</v>
+        <v>-15.21985713655701</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.39186488795359</v>
+        <v>-3.427659243922869</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.261108876119393</v>
+        <v>-2.084022387882206</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.579949288251726</v>
       </c>
       <c r="E79" t="n">
-        <v>-15.69036831608297</v>
+        <v>-15.63813002774448</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.305782996769241</v>
+        <v>-3.348791211604311</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.255806493468494</v>
+        <v>-2.061817842262638</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.200642036849738</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.12302964809349</v>
+        <v>-16.08508815445816</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.516359595675563</v>
+        <v>-3.556932642182072</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.082857172929292</v>
+        <v>-1.887768768284732</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.825467392528616</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.75726007465522</v>
+        <v>-16.71859850436361</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.666240278607643</v>
+        <v>-3.707769063221598</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.8053003526847</v>
+        <v>-1.616771191763844</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.449177125191517</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.45261846318498</v>
+        <v>-17.42001862910908</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.919196661812632</v>
+        <v>-3.963082060938098</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.824807883918871</v>
+        <v>-1.623251881670499</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.073371108896259</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.29114118328901</v>
+        <v>-18.2589472106012</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.159073834478737</v>
+        <v>-4.199790896316506</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.909344883367897</v>
+        <v>-1.699763299477546</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.699883218651036</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.06873232596764</v>
+        <v>-19.03707513769635</v>
       </c>
       <c r="F84" t="n">
-        <v>-4.38558376594344</v>
+        <v>-4.429901211062683</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.679732076129705</v>
+        <v>-1.469679169337052</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.331186100854524</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.96717851617825</v>
+        <v>-19.94341598652052</v>
       </c>
       <c r="F85" t="n">
-        <v>-4.547875951969476</v>
+        <v>-4.596841164597532</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.696974638972258</v>
+        <v>-1.483818856406116</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.977738028738015</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.1782427136436</v>
+        <v>-21.16538607225302</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.764841594662561</v>
+        <v>-4.815037483757739</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.665998250448734</v>
+        <v>-1.448692207881765</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.6484226932279978</v>
       </c>
       <c r="E87" t="n">
-        <v>-22.26633091051661</v>
+        <v>-22.25097363928326</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.816032498773709</v>
+        <v>-4.864264542442629</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.911426559519731</v>
+        <v>-1.692339963766287</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.3540905319174092</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.66093610152011</v>
+        <v>-23.65470416536745</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.851368624143529</v>
+        <v>-4.903174866488238</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.9230263398375</v>
+        <v>-1.695613039476719</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1064845184479034</v>
       </c>
       <c r="E89" t="n">
-        <v>-25.01710229138031</v>
+        <v>-25.01431363087502</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.113096850252474</v>
+        <v>-5.165413692408012</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.049733646739725</v>
+        <v>-1.82843445180603</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08677334435600124</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.56135250386474</v>
+        <v>-26.55701895162413</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.212611444152434</v>
+        <v>-5.265687639872792</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.257246646781084</v>
+        <v>-2.027568378028683</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2169770649469586</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.09689633495942</v>
+        <v>-28.09239258278187</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.458877660605301</v>
+        <v>-5.514663963013896</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.513436828787979</v>
+        <v>-2.2921114492486</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2788191252053364</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.80402788709777</v>
+        <v>-29.79173421472939</v>
       </c>
       <c r="F92" t="n">
-        <v>-5.60570783697526</v>
+        <v>-5.663837661592523</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.757817753631638</v>
+        <v>-2.524198701723878</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2717241756270082</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.52666072580072</v>
+        <v>-31.51422303810108</v>
       </c>
       <c r="F93" t="n">
-        <v>-5.763967593726044</v>
+        <v>-5.819217111718128</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.190191054979641</v>
+        <v>-2.962437354744975</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1983573970378406</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.17711569893723</v>
+        <v>-33.16179770461241</v>
       </c>
       <c r="F94" t="n">
-        <v>-5.723970608544571</v>
+        <v>-5.774166497639748</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.595581120170847</v>
+        <v>-3.374779432745137</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06679793974841443</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.17264449807312</v>
+        <v>-35.15277038235938</v>
       </c>
       <c r="F95" t="n">
-        <v>-5.93785956006985</v>
+        <v>-5.989129017998049</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.79303923162976</v>
+        <v>-3.565089146852467</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.112377458751587</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.00480754234994</v>
+        <v>-36.98058678209275</v>
       </c>
       <c r="F96" t="n">
-        <v>-6.270338590735483</v>
+        <v>-6.311474606264186</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.375777631114987</v>
+        <v>-4.153195390502803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.324640532282471</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.09989021229432</v>
+        <v>-39.07543379058598</v>
       </c>
       <c r="F97" t="n">
-        <v>-6.256251272877786</v>
+        <v>-6.299914102854943</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.711228614525693</v>
+        <v>-4.482060945584119</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.5590073669757682</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.35839100630911</v>
+        <v>-41.32576498762754</v>
       </c>
       <c r="F98" t="n">
-        <v>-6.470271147431482</v>
+        <v>-6.506654657028639</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.226240531410671</v>
+        <v>-4.998578477295896</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.7951487139400003</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.30144585565537</v>
+        <v>-43.2672880375413</v>
       </c>
       <c r="F99" t="n">
-        <v>-6.58039050663324</v>
+        <v>-6.617009677681548</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.486594065721236</v>
+        <v>-5.269942638296352</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.025608887813686</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.40859962881981</v>
+        <v>-45.36504153726538</v>
       </c>
       <c r="F100" t="n">
-        <v>-6.702502415238019</v>
+        <v>-6.732392142625679</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.57855440088152</v>
+        <v>-5.364416695602248</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.223819479071008</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.57774545593983</v>
+        <v>-47.53031204274425</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.847185453941933</v>
+        <v>-6.871209829656501</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.04958927252114</v>
+        <v>-5.839955319419422</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.39824005309448</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.73053899681052</v>
+        <v>-49.67654633989125</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.268495759388679</v>
+        <v>-7.294876749614756</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.482643373616913</v>
+        <v>-6.274776881398828</v>
       </c>
     </row>
   </sheetData>
